--- a/03_内部設計/022-クラス仕様書/util/PagingUtilのクラス仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/util/PagingUtilのクラス仕様書.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5167DF98-67AF-4415-8DFC-2844082CC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36094299-BDCA-4E14-AA3C-C3153F7C42FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
-    <sheet name="メソッド仕様_paging" sheetId="2" r:id="rId2"/>
+    <sheet name="メソッド仕様（paging）" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">メソッド仕様_paging!$A$1:$BI$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（paging）'!$A$1:$BI$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -889,14 +889,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -904,14 +898,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,33 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1310,85 +1310,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="37">
         <v>45555</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1588,82 +1588,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="str">
         <f>G5</f>
         <v>PagingUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35" t="s">
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="36">
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="37">
         <v>45555</v>
       </c>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1926,942 +1926,927 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38" t="s">
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37" t="s">
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="37"/>
-      <c r="BI13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="34"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="34"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="34"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="41"/>
-      <c r="BI17" s="41"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="41"/>
-      <c r="BI18" s="41"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="41"/>
-      <c r="BF19" s="41"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="41"/>
-      <c r="BI19" s="41"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -2878,14 +2863,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2899,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
@@ -2909,86 +2909,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35" t="str">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="37">
         <v>45555</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3188,82 +3188,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="str">
         <f>クラス仕様!G5</f>
         <v>PagingUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35" t="s">
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="47">
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="48">
         <v>45555</v>
       </c>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="50"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3526,71 +3526,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3790,71 +3790,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4314,75 +4314,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53" t="s">
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4582,75 +4582,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="50" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="50" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="52"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="47"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4850,75 +4850,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55" t="s">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55"/>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -5118,67 +5118,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5638,73 +5638,73 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53" t="s">
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="53"/>
-      <c r="BH12" s="53"/>
-      <c r="BI12" s="53"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="44"/>
+      <c r="BI12" s="44"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -13227,73 +13227,73 @@
       <c r="IX40" s="1"/>
     </row>
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="45" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="43"/>
-      <c r="AP41" s="43"/>
-      <c r="AQ41" s="43"/>
-      <c r="AR41" s="43"/>
-      <c r="AS41" s="44"/>
-      <c r="AT41" s="45" t="s">
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AU41" s="43"/>
-      <c r="AV41" s="43"/>
-      <c r="AW41" s="43"/>
-      <c r="AX41" s="43"/>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="43"/>
-      <c r="BA41" s="43"/>
-      <c r="BB41" s="43"/>
-      <c r="BC41" s="43"/>
-      <c r="BD41" s="43"/>
-      <c r="BE41" s="43"/>
-      <c r="BF41" s="43"/>
-      <c r="BG41" s="43"/>
-      <c r="BH41" s="43"/>
-      <c r="BI41" s="46"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52"/>
+      <c r="AX41" s="52"/>
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BA41" s="52"/>
+      <c r="BB41" s="52"/>
+      <c r="BC41" s="52"/>
+      <c r="BD41" s="52"/>
+      <c r="BE41" s="52"/>
+      <c r="BF41" s="52"/>
+      <c r="BG41" s="52"/>
+      <c r="BH41" s="52"/>
+      <c r="BI41" s="55"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
@@ -15036,33 +15036,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="P12:AS12"/>
-    <mergeCell ref="AT12:BI12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="P41:AS41"/>
     <mergeCell ref="AT41:BI41"/>
@@ -15079,6 +15052,33 @@
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="P12:AS12"/>
+    <mergeCell ref="AT12:BI12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -15094,12 +15094,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15235,15 +15232,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15267,10 +15268,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/03_内部設計/022-クラス仕様書/util/PagingUtilのクラス仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/util/PagingUtilのクラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36094299-BDCA-4E14-AA3C-C3153F7C42FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561B6B97-7D0B-4993-B1DB-EFAA447CBBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="-96" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（paging）'!$A$1:$BI$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（paging）'!$A$1:$BI$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理を行うServiceクラスです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PagingUtil</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,16 +153,6 @@
   </si>
   <si>
     <t>request</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッション管理のための引数</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒキスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -441,38 +427,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4) セッションオブジェクトに以下を保存する。</t>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4.1) "nowPage"でnowPage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4.2) "splitedList"でsplitedList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10件ごとのページング処理を行うクラス</t>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10件ごとのページング処理を行うメソッド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -493,15 +452,157 @@
     <t>奈良田　岬</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>paging: 10件ごとのページング処理を行うクラス</t>
+    <rPh sb="10" eb="11">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング処理を行うUtilクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果のリストから、10件ごとのページング処理を行うメソッド</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション管理を行うためのrequestオブジェクト</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+  </si>
+  <si>
+    <t>(なし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultList</t>
+  </si>
+  <si>
+    <t>int型の変数、endPageを0で初期化する。</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1) resultListの要素数を10で割った余りが0の場合、endPageに以下の式を代入する。</t>
+    <rPh sb="16" eb="19">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(resultListの要素数) / 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2) 2.1以外の場合、endPageに以下の式を代入する。</t>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((resultListの要素数) / 10) + 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押下されたリンクをもとに、次に表示するページの番号を算出し、リストを切り出す。</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4) セッションオブジェクトに、表示するページ番号と切り出したリストを保存する。</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -536,6 +637,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -688,69 +796,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -829,9 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -862,35 +904,44 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -898,29 +949,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -931,7 +973,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,20 +997,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,85 +1355,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="40" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="39" t="s">
-        <v>72</v>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33" t="s">
+        <v>67</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40" t="s">
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="39" t="s">
-        <v>33</v>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="33" t="s">
+        <v>32</v>
       </c>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="40" t="s">
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="40">
         <v>45555</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1588,25 +1633,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="40" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
@@ -1617,53 +1662,53 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="39" t="str">
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33" t="str">
         <f>G5</f>
         <v>PagingUtil</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="39" t="s">
-        <v>73</v>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="33" t="s">
+        <v>68</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="40" t="s">
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="37">
-        <v>45555</v>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="34">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="36"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1926,927 +1971,942 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+    </row>
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-    </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="35" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="36" t="s">
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35" t="s">
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="37"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34"/>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
-      <c r="BI13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="37"/>
+      <c r="BI13" s="37"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="34"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
+      <c r="BD16" s="43"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="43"/>
+      <c r="BH16" s="43"/>
+      <c r="BI16" s="43"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="34"/>
-      <c r="BC17" s="34"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="43"/>
+      <c r="BF17" s="43"/>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="43"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="43"/>
+      <c r="BE18" s="43"/>
+      <c r="BF18" s="43"/>
+      <c r="BG18" s="43"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="43"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="43"/>
+      <c r="BE19" s="43"/>
+      <c r="BF19" s="43"/>
+      <c r="BG19" s="43"/>
+      <c r="BH19" s="43"/>
+      <c r="BI19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -2863,29 +2923,14 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2897,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IX47"/>
+  <dimension ref="A1:IX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2909,86 +2954,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="40" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="39" t="str">
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40" t="s">
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="39" t="s">
-        <v>33</v>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="33" t="s">
+        <v>32</v>
       </c>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="40" t="s">
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="40">
         <v>45555</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3188,25 +3233,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="40" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
@@ -3217,53 +3262,53 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="39" t="str">
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33" t="str">
         <f>クラス仕様!G5</f>
         <v>PagingUtil</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="39" t="s">
-        <v>73</v>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="33" t="s">
+        <v>68</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="40" t="s">
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="48">
-        <v>45555</v>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="34">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="50"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="36"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3526,71 +3571,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
-        <v>70</v>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
+        <v>71</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3790,71 +3835,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>34</v>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
+        <v>33</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4314,75 +4359,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4582,75 +4627,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45" t="s">
-        <v>35</v>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="44" t="s">
+        <v>34</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="45" t="s">
-        <v>71</v>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="44" t="s">
+        <v>66</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="45" t="s">
-        <v>36</v>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="44" t="s">
+        <v>72</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="47"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45"/>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="46"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4850,75 +4895,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43" t="s">
-        <v>37</v>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
+        <v>35</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43" t="s">
-        <v>38</v>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49" t="s">
+        <v>36</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43" t="s">
-        <v>41</v>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49" t="s">
+        <v>39</v>
       </c>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -5118,67 +5163,71 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
+      <c r="A10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="54"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5638,73 +5687,73 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44" t="s">
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="47"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="47"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="47"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -5905,7 +5954,7 @@
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5921,38 +5970,38 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="14" t="s">
-        <v>39</v>
+      <c r="P13" s="50" t="s">
+        <v>37</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="16"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
       <c r="AT13" s="5"/>
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
@@ -6183,38 +6232,38 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="17" t="s">
-        <v>40</v>
+      <c r="P14" s="51" t="s">
+        <v>38</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="19"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="18"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
@@ -6431,7 +6480,8 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6444,40 +6494,40 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="17" t="s">
-        <v>42</v>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="19"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="18"/>
       <c r="AT15" s="8"/>
-      <c r="AU15" s="9"/>
+      <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
       <c r="AX15" s="10"/>
@@ -6691,8 +6741,11 @@
       <c r="IX15" s="1"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6705,40 +6758,40 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="20" t="s">
-        <v>44</v>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="17" t="s">
+        <v>77</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="19"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="18"/>
       <c r="AT16" s="8"/>
-      <c r="AU16" s="9"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AW16" s="10"/>
       <c r="AX16" s="10"/>
@@ -6953,7 +7006,8 @@
     </row>
     <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6966,40 +7020,40 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20" t="s">
-        <v>52</v>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="17" t="s">
+        <v>78</v>
       </c>
-      <c r="S17" s="20"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="19"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="18"/>
       <c r="AT17" s="8"/>
-      <c r="AU17" s="9"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
       <c r="AX17" s="10"/>
@@ -7213,8 +7267,11 @@
       <c r="IX17" s="1"/>
     </row>
     <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -7227,40 +7284,40 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="20" t="s">
-        <v>45</v>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="17" t="s">
+        <v>79</v>
       </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="19"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="18"/>
       <c r="AT18" s="8"/>
-      <c r="AU18" s="9"/>
+      <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
       <c r="AX18" s="10"/>
@@ -7475,7 +7532,8 @@
     </row>
     <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -7488,40 +7546,40 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="20" t="s">
-        <v>46</v>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17" t="s">
+        <v>80</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="19"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="18"/>
       <c r="AT19" s="8"/>
-      <c r="AU19" s="9"/>
+      <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AW19" s="10"/>
       <c r="AX19" s="10"/>
@@ -7749,38 +7807,38 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="20" t="s">
-        <v>43</v>
+      <c r="P20" s="51" t="s">
+        <v>40</v>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="18"/>
       <c r="AT20" s="8"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="10"/>
@@ -8010,38 +8068,38 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="20" t="s">
-        <v>47</v>
+      <c r="P21" s="51" t="s">
+        <v>81</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="18"/>
       <c r="AT21" s="8"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="10"/>
@@ -8271,38 +8329,38 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20" t="s">
-        <v>48</v>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="19" t="s">
+        <v>42</v>
       </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="18"/>
       <c r="AT22" s="8"/>
       <c r="AU22" s="9"/>
       <c r="AV22" s="10"/>
@@ -8532,38 +8590,38 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18" t="s">
-        <v>49</v>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19" t="s">
+        <v>50</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="18"/>
       <c r="AT23" s="8"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="10"/>
@@ -8781,10 +8839,9 @@
     <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -8794,40 +8851,40 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18" t="s">
-        <v>50</v>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="19" t="s">
+        <v>43</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="18"/>
       <c r="AT24" s="8"/>
-      <c r="AU24" s="10"/>
+      <c r="AU24" s="9"/>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
@@ -9043,7 +9100,6 @@
     <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -9056,40 +9112,40 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20" t="s">
-        <v>51</v>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="19" t="s">
+        <v>44</v>
       </c>
-      <c r="T25" s="20"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="18"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="10"/>
+      <c r="AU25" s="9"/>
       <c r="AV25" s="10"/>
       <c r="AW25" s="10"/>
       <c r="AX25" s="10"/>
@@ -9305,7 +9361,6 @@
     <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -9318,40 +9373,40 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20" t="s">
-        <v>53</v>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="19" t="s">
+        <v>41</v>
       </c>
-      <c r="T26" s="20"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="18"/>
       <c r="AT26" s="8"/>
-      <c r="AU26" s="10"/>
+      <c r="AU26" s="9"/>
       <c r="AV26" s="10"/>
       <c r="AW26" s="10"/>
       <c r="AX26" s="10"/>
@@ -9567,7 +9622,6 @@
     <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -9580,40 +9634,40 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18" t="s">
-        <v>54</v>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="19" t="s">
+        <v>45</v>
       </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="18"/>
-      <c r="AS27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="18"/>
       <c r="AT27" s="8"/>
-      <c r="AU27" s="10"/>
+      <c r="AU27" s="9"/>
       <c r="AV27" s="10"/>
       <c r="AW27" s="10"/>
       <c r="AX27" s="10"/>
@@ -9829,7 +9883,6 @@
     <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -9842,40 +9895,40 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18" t="s">
-        <v>55</v>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19" t="s">
+        <v>46</v>
       </c>
-      <c r="T28" s="18"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
-      <c r="AS28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="18"/>
       <c r="AT28" s="8"/>
-      <c r="AU28" s="10"/>
+      <c r="AU28" s="9"/>
       <c r="AV28" s="10"/>
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
@@ -10089,9 +10142,10 @@
       <c r="IX28" s="1"/>
     </row>
     <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -10104,40 +10158,40 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20" t="s">
-        <v>56</v>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17" t="s">
+        <v>47</v>
       </c>
-      <c r="T29" s="20"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-      <c r="AS29" s="19"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="18"/>
       <c r="AT29" s="8"/>
-      <c r="AU29" s="10"/>
+      <c r="AU29" s="9"/>
       <c r="AV29" s="10"/>
       <c r="AW29" s="10"/>
       <c r="AX29" s="10"/>
@@ -10354,9 +10408,9 @@
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -10366,38 +10420,38 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="20" t="s">
-        <v>57</v>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="19"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="18"/>
       <c r="AT30" s="8"/>
       <c r="AU30" s="10"/>
       <c r="AV30" s="10"/>
@@ -10628,38 +10682,38 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="20" t="s">
-        <v>58</v>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19" t="s">
+        <v>49</v>
       </c>
-      <c r="T31" s="18"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="18"/>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
-      <c r="AR31" s="18"/>
-      <c r="AS31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="18"/>
       <c r="AT31" s="8"/>
       <c r="AU31" s="10"/>
       <c r="AV31" s="10"/>
@@ -10890,38 +10944,38 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="20" t="s">
-        <v>61</v>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19" t="s">
+        <v>51</v>
       </c>
-      <c r="T32" s="18"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="18"/>
-      <c r="AP32" s="18"/>
-      <c r="AQ32" s="18"/>
-      <c r="AR32" s="18"/>
-      <c r="AS32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="18"/>
       <c r="AT32" s="8"/>
       <c r="AU32" s="10"/>
       <c r="AV32" s="10"/>
@@ -11152,38 +11206,38 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18" t="s">
-        <v>59</v>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17" t="s">
+        <v>52</v>
       </c>
-      <c r="T33" s="18"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
-      <c r="AO33" s="18"/>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
-      <c r="AR33" s="18"/>
-      <c r="AS33" s="19"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="18"/>
       <c r="AT33" s="8"/>
       <c r="AU33" s="10"/>
       <c r="AV33" s="10"/>
@@ -11414,38 +11468,38 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18" t="s">
-        <v>55</v>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17" t="s">
+        <v>53</v>
       </c>
-      <c r="T34" s="18"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="18"/>
-      <c r="AS34" s="19"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="18"/>
       <c r="AT34" s="8"/>
       <c r="AU34" s="10"/>
       <c r="AV34" s="10"/>
@@ -11661,7 +11715,9 @@
       <c r="IX34" s="1"/>
     </row>
     <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -11676,38 +11732,38 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="20" t="s">
-        <v>60</v>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19" t="s">
+        <v>54</v>
       </c>
-      <c r="T35" s="18"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="18"/>
-      <c r="AO35" s="18"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="18"/>
-      <c r="AR35" s="18"/>
-      <c r="AS35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="18"/>
       <c r="AT35" s="8"/>
       <c r="AU35" s="10"/>
       <c r="AV35" s="10"/>
@@ -11938,38 +11994,38 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="18" t="s">
-        <v>62</v>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="19" t="s">
+        <v>55</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="18"/>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="18"/>
-      <c r="AR36" s="18"/>
-      <c r="AS36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="18"/>
       <c r="AT36" s="8"/>
       <c r="AU36" s="10"/>
       <c r="AV36" s="10"/>
@@ -12200,38 +12256,38 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="20" t="s">
-        <v>63</v>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="19" t="s">
+        <v>56</v>
       </c>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="18"/>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="18"/>
-      <c r="AS37" s="19"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="18"/>
       <c r="AT37" s="8"/>
       <c r="AU37" s="10"/>
       <c r="AV37" s="10"/>
@@ -12462,38 +12518,38 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="20" t="s">
-        <v>64</v>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="19" t="s">
+        <v>59</v>
       </c>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="18"/>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="18"/>
-      <c r="AR38" s="18"/>
-      <c r="AS38" s="19"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="18"/>
       <c r="AT38" s="8"/>
       <c r="AU38" s="10"/>
       <c r="AV38" s="10"/>
@@ -12710,6 +12766,12 @@
     </row>
     <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -12718,41 +12780,41 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18" t="s">
-        <v>55</v>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17" t="s">
+        <v>57</v>
       </c>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="18"/>
-      <c r="AQ39" s="18"/>
-      <c r="AR39" s="18"/>
-      <c r="AS39" s="19"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="17"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="18"/>
       <c r="AT39" s="8"/>
       <c r="AU39" s="10"/>
-      <c r="AV39" s="9"/>
+      <c r="AV39" s="10"/>
       <c r="AW39" s="10"/>
       <c r="AX39" s="10"/>
       <c r="AY39" s="10"/>
@@ -12965,69 +13027,69 @@
       <c r="IX39" s="1"/>
     </row>
     <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29" t="s">
-        <v>65</v>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17" t="s">
+        <v>53</v>
       </c>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="29"/>
-      <c r="AP40" s="29"/>
-      <c r="AQ40" s="29"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="27"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="11"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
@@ -13227,73 +13289,71 @@
       <c r="IX40" s="1"/>
     </row>
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
-        <v>24</v>
+      <c r="A41" s="8" t="s">
+        <v>75</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54" t="s">
-        <v>6</v>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="19" t="s">
+        <v>58</v>
       </c>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
-      <c r="AO41" s="52"/>
-      <c r="AP41" s="52"/>
-      <c r="AQ41" s="52"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="53"/>
-      <c r="AT41" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU41" s="52"/>
-      <c r="AV41" s="52"/>
-      <c r="AW41" s="52"/>
-      <c r="AX41" s="52"/>
-      <c r="AY41" s="52"/>
-      <c r="AZ41" s="52"/>
-      <c r="BA41" s="52"/>
-      <c r="BB41" s="52"/>
-      <c r="BC41" s="52"/>
-      <c r="BD41" s="52"/>
-      <c r="BE41" s="52"/>
-      <c r="BF41" s="52"/>
-      <c r="BG41" s="52"/>
-      <c r="BH41" s="52"/>
-      <c r="BI41" s="55"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="17"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="11"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
@@ -13494,6 +13554,12 @@
     </row>
     <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -13502,41 +13568,41 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="17" t="s">
-        <v>66</v>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="17" t="s">
+        <v>60</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-      <c r="AQ42" s="18"/>
-      <c r="AR42" s="18"/>
-      <c r="AS42" s="19"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="18"/>
       <c r="AT42" s="8"/>
       <c r="AU42" s="10"/>
-      <c r="AV42" s="9"/>
+      <c r="AV42" s="10"/>
       <c r="AW42" s="10"/>
       <c r="AX42" s="10"/>
       <c r="AY42" s="10"/>
@@ -13750,6 +13816,12 @@
     </row>
     <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -13758,41 +13830,41 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="18" t="s">
-        <v>67</v>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="19" t="s">
+        <v>61</v>
       </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-      <c r="AQ43" s="18"/>
-      <c r="AR43" s="18"/>
-      <c r="AS43" s="19"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="18"/>
       <c r="AT43" s="8"/>
       <c r="AU43" s="10"/>
-      <c r="AV43" s="9"/>
+      <c r="AV43" s="10"/>
       <c r="AW43" s="10"/>
       <c r="AX43" s="10"/>
       <c r="AY43" s="10"/>
@@ -14006,6 +14078,12 @@
     </row>
     <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -14014,41 +14092,41 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="18" t="s">
-        <v>68</v>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="19" t="s">
+        <v>62</v>
       </c>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="18"/>
-      <c r="AP44" s="18"/>
-      <c r="AQ44" s="18"/>
-      <c r="AR44" s="18"/>
-      <c r="AS44" s="19"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="18"/>
       <c r="AT44" s="8"/>
       <c r="AU44" s="10"/>
-      <c r="AV44" s="9"/>
+      <c r="AV44" s="10"/>
       <c r="AW44" s="10"/>
       <c r="AX44" s="10"/>
       <c r="AY44" s="10"/>
@@ -14270,36 +14348,38 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
-      <c r="AK45" s="18"/>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18"/>
-      <c r="AN45" s="18"/>
-      <c r="AO45" s="18"/>
-      <c r="AP45" s="18"/>
-      <c r="AQ45" s="18"/>
-      <c r="AR45" s="18"/>
-      <c r="AS45" s="19"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="18"/>
       <c r="AT45" s="8"/>
       <c r="AU45" s="10"/>
       <c r="AV45" s="9"/>
@@ -14515,67 +14595,71 @@
       <c r="IX45" s="1"/>
     </row>
     <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="29"/>
-      <c r="AR46" s="29"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="25"/>
-      <c r="AU46" s="26"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="26"/>
-      <c r="AX46" s="26"/>
-      <c r="AY46" s="26"/>
-      <c r="AZ46" s="26"/>
-      <c r="BA46" s="26"/>
-      <c r="BB46" s="26"/>
-      <c r="BC46" s="26"/>
-      <c r="BD46" s="26"/>
-      <c r="BE46" s="26"/>
-      <c r="BF46" s="26"/>
-      <c r="BG46" s="26"/>
-      <c r="BH46" s="26"/>
-      <c r="BI46" s="27"/>
+      <c r="A46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="18"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="10"/>
+      <c r="BF46" s="10"/>
+      <c r="BG46" s="10"/>
+      <c r="BH46" s="10"/>
+      <c r="BI46" s="11"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
@@ -14775,67 +14859,63 @@
       <c r="IX46" s="1"/>
     </row>
     <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="13"/>
-      <c r="AM47" s="13"/>
-      <c r="AN47" s="13"/>
-      <c r="AO47" s="13"/>
-      <c r="AP47" s="13"/>
-      <c r="AQ47" s="13"/>
-      <c r="AR47" s="13"/>
-      <c r="AS47" s="13"/>
-      <c r="AT47" s="13"/>
-      <c r="AU47" s="13"/>
-      <c r="AV47" s="13"/>
-      <c r="AW47" s="13"/>
-      <c r="AX47" s="13"/>
-      <c r="AY47" s="13"/>
-      <c r="AZ47" s="13"/>
-      <c r="BA47" s="13"/>
-      <c r="BB47" s="13"/>
-      <c r="BC47" s="13"/>
-      <c r="BD47" s="13"/>
-      <c r="BE47" s="13"/>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="13"/>
-      <c r="BH47" s="13"/>
-      <c r="BI47" s="13"/>
+      <c r="A47" s="8"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="18"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="11"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
@@ -15034,11 +15114,1319 @@
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
     </row>
+    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="10"/>
+      <c r="BA48" s="10"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
+      <c r="DA48" s="1"/>
+      <c r="DB48" s="1"/>
+      <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
+      <c r="DE48" s="1"/>
+      <c r="DF48" s="1"/>
+      <c r="DG48" s="1"/>
+      <c r="DH48" s="1"/>
+      <c r="DI48" s="1"/>
+      <c r="DJ48" s="1"/>
+      <c r="DK48" s="1"/>
+      <c r="DL48" s="1"/>
+      <c r="DM48" s="1"/>
+      <c r="DN48" s="1"/>
+      <c r="DO48" s="1"/>
+      <c r="DP48" s="1"/>
+      <c r="DQ48" s="1"/>
+      <c r="DR48" s="1"/>
+      <c r="DS48" s="1"/>
+      <c r="DT48" s="1"/>
+      <c r="DU48" s="1"/>
+      <c r="DV48" s="1"/>
+      <c r="DW48" s="1"/>
+      <c r="DX48" s="1"/>
+      <c r="DY48" s="1"/>
+      <c r="DZ48" s="1"/>
+      <c r="EA48" s="1"/>
+      <c r="EB48" s="1"/>
+      <c r="EC48" s="1"/>
+      <c r="ED48" s="1"/>
+      <c r="EE48" s="1"/>
+      <c r="EF48" s="1"/>
+      <c r="EG48" s="1"/>
+      <c r="EH48" s="1"/>
+      <c r="EI48" s="1"/>
+      <c r="EJ48" s="1"/>
+      <c r="EK48" s="1"/>
+      <c r="EL48" s="1"/>
+      <c r="EM48" s="1"/>
+      <c r="EN48" s="1"/>
+      <c r="EO48" s="1"/>
+      <c r="EP48" s="1"/>
+      <c r="EQ48" s="1"/>
+      <c r="ER48" s="1"/>
+      <c r="ES48" s="1"/>
+      <c r="ET48" s="1"/>
+      <c r="EU48" s="1"/>
+      <c r="EV48" s="1"/>
+      <c r="EW48" s="1"/>
+      <c r="EX48" s="1"/>
+      <c r="EY48" s="1"/>
+      <c r="EZ48" s="1"/>
+      <c r="FA48" s="1"/>
+      <c r="FB48" s="1"/>
+      <c r="FC48" s="1"/>
+      <c r="FD48" s="1"/>
+      <c r="FE48" s="1"/>
+      <c r="FF48" s="1"/>
+      <c r="FG48" s="1"/>
+      <c r="FH48" s="1"/>
+      <c r="FI48" s="1"/>
+      <c r="FJ48" s="1"/>
+      <c r="FK48" s="1"/>
+      <c r="FL48" s="1"/>
+      <c r="FM48" s="1"/>
+      <c r="FN48" s="1"/>
+      <c r="FO48" s="1"/>
+      <c r="FP48" s="1"/>
+      <c r="FQ48" s="1"/>
+      <c r="FR48" s="1"/>
+      <c r="FS48" s="1"/>
+      <c r="FT48" s="1"/>
+      <c r="FU48" s="1"/>
+      <c r="FV48" s="1"/>
+      <c r="FW48" s="1"/>
+      <c r="FX48" s="1"/>
+      <c r="FY48" s="1"/>
+      <c r="FZ48" s="1"/>
+      <c r="GA48" s="1"/>
+      <c r="GB48" s="1"/>
+      <c r="GC48" s="1"/>
+      <c r="GD48" s="1"/>
+      <c r="GE48" s="1"/>
+      <c r="GF48" s="1"/>
+      <c r="GG48" s="1"/>
+      <c r="GH48" s="1"/>
+      <c r="GI48" s="1"/>
+      <c r="GJ48" s="1"/>
+      <c r="GK48" s="1"/>
+      <c r="GL48" s="1"/>
+      <c r="GM48" s="1"/>
+      <c r="GN48" s="1"/>
+      <c r="GO48" s="1"/>
+      <c r="GP48" s="1"/>
+      <c r="GQ48" s="1"/>
+      <c r="GR48" s="1"/>
+      <c r="GS48" s="1"/>
+      <c r="GT48" s="1"/>
+      <c r="GU48" s="1"/>
+      <c r="GV48" s="1"/>
+      <c r="GW48" s="1"/>
+      <c r="GX48" s="1"/>
+      <c r="GY48" s="1"/>
+      <c r="GZ48" s="1"/>
+      <c r="HA48" s="1"/>
+      <c r="HB48" s="1"/>
+      <c r="HC48" s="1"/>
+      <c r="HD48" s="1"/>
+      <c r="HE48" s="1"/>
+      <c r="HF48" s="1"/>
+      <c r="HG48" s="1"/>
+      <c r="HH48" s="1"/>
+      <c r="HI48" s="1"/>
+      <c r="HJ48" s="1"/>
+      <c r="HK48" s="1"/>
+      <c r="HL48" s="1"/>
+      <c r="HM48" s="1"/>
+      <c r="HN48" s="1"/>
+      <c r="HO48" s="1"/>
+      <c r="HP48" s="1"/>
+      <c r="HQ48" s="1"/>
+      <c r="HR48" s="1"/>
+      <c r="HS48" s="1"/>
+      <c r="HT48" s="1"/>
+      <c r="HU48" s="1"/>
+      <c r="HV48" s="1"/>
+      <c r="HW48" s="1"/>
+      <c r="HX48" s="1"/>
+      <c r="HY48" s="1"/>
+      <c r="HZ48" s="1"/>
+      <c r="IA48" s="1"/>
+      <c r="IB48" s="1"/>
+      <c r="IC48" s="1"/>
+      <c r="ID48" s="1"/>
+      <c r="IE48" s="1"/>
+      <c r="IF48" s="1"/>
+      <c r="IG48" s="1"/>
+      <c r="IH48" s="1"/>
+      <c r="II48" s="1"/>
+      <c r="IJ48" s="1"/>
+      <c r="IK48" s="1"/>
+      <c r="IL48" s="1"/>
+      <c r="IM48" s="1"/>
+      <c r="IN48" s="1"/>
+      <c r="IO48" s="1"/>
+      <c r="IP48" s="1"/>
+      <c r="IQ48" s="1"/>
+      <c r="IR48" s="1"/>
+      <c r="IS48" s="1"/>
+      <c r="IT48" s="1"/>
+      <c r="IU48" s="1"/>
+      <c r="IV48" s="1"/>
+      <c r="IW48" s="1"/>
+      <c r="IX48" s="1"/>
+    </row>
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+      <c r="AP49" s="17"/>
+      <c r="AQ49" s="17"/>
+      <c r="AR49" s="17"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="8"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="10"/>
+      <c r="BA49" s="10"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="11"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+      <c r="DF49" s="1"/>
+      <c r="DG49" s="1"/>
+      <c r="DH49" s="1"/>
+      <c r="DI49" s="1"/>
+      <c r="DJ49" s="1"/>
+      <c r="DK49" s="1"/>
+      <c r="DL49" s="1"/>
+      <c r="DM49" s="1"/>
+      <c r="DN49" s="1"/>
+      <c r="DO49" s="1"/>
+      <c r="DP49" s="1"/>
+      <c r="DQ49" s="1"/>
+      <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
+      <c r="DT49" s="1"/>
+      <c r="DU49" s="1"/>
+      <c r="DV49" s="1"/>
+      <c r="DW49" s="1"/>
+      <c r="DX49" s="1"/>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
+      <c r="EA49" s="1"/>
+      <c r="EB49" s="1"/>
+      <c r="EC49" s="1"/>
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+      <c r="EZ49" s="1"/>
+      <c r="FA49" s="1"/>
+      <c r="FB49" s="1"/>
+      <c r="FC49" s="1"/>
+      <c r="FD49" s="1"/>
+      <c r="FE49" s="1"/>
+      <c r="FF49" s="1"/>
+      <c r="FG49" s="1"/>
+      <c r="FH49" s="1"/>
+      <c r="FI49" s="1"/>
+      <c r="FJ49" s="1"/>
+      <c r="FK49" s="1"/>
+      <c r="FL49" s="1"/>
+      <c r="FM49" s="1"/>
+      <c r="FN49" s="1"/>
+      <c r="FO49" s="1"/>
+      <c r="FP49" s="1"/>
+      <c r="FQ49" s="1"/>
+      <c r="FR49" s="1"/>
+      <c r="FS49" s="1"/>
+      <c r="FT49" s="1"/>
+      <c r="FU49" s="1"/>
+      <c r="FV49" s="1"/>
+      <c r="FW49" s="1"/>
+      <c r="FX49" s="1"/>
+      <c r="FY49" s="1"/>
+      <c r="FZ49" s="1"/>
+      <c r="GA49" s="1"/>
+      <c r="GB49" s="1"/>
+      <c r="GC49" s="1"/>
+      <c r="GD49" s="1"/>
+      <c r="GE49" s="1"/>
+      <c r="GF49" s="1"/>
+      <c r="GG49" s="1"/>
+      <c r="GH49" s="1"/>
+      <c r="GI49" s="1"/>
+      <c r="GJ49" s="1"/>
+      <c r="GK49" s="1"/>
+      <c r="GL49" s="1"/>
+      <c r="GM49" s="1"/>
+      <c r="GN49" s="1"/>
+      <c r="GO49" s="1"/>
+      <c r="GP49" s="1"/>
+      <c r="GQ49" s="1"/>
+      <c r="GR49" s="1"/>
+      <c r="GS49" s="1"/>
+      <c r="GT49" s="1"/>
+      <c r="GU49" s="1"/>
+      <c r="GV49" s="1"/>
+      <c r="GW49" s="1"/>
+      <c r="GX49" s="1"/>
+      <c r="GY49" s="1"/>
+      <c r="GZ49" s="1"/>
+      <c r="HA49" s="1"/>
+      <c r="HB49" s="1"/>
+      <c r="HC49" s="1"/>
+      <c r="HD49" s="1"/>
+      <c r="HE49" s="1"/>
+      <c r="HF49" s="1"/>
+      <c r="HG49" s="1"/>
+      <c r="HH49" s="1"/>
+      <c r="HI49" s="1"/>
+      <c r="HJ49" s="1"/>
+      <c r="HK49" s="1"/>
+      <c r="HL49" s="1"/>
+      <c r="HM49" s="1"/>
+      <c r="HN49" s="1"/>
+      <c r="HO49" s="1"/>
+      <c r="HP49" s="1"/>
+      <c r="HQ49" s="1"/>
+      <c r="HR49" s="1"/>
+      <c r="HS49" s="1"/>
+      <c r="HT49" s="1"/>
+      <c r="HU49" s="1"/>
+      <c r="HV49" s="1"/>
+      <c r="HW49" s="1"/>
+      <c r="HX49" s="1"/>
+      <c r="HY49" s="1"/>
+      <c r="HZ49" s="1"/>
+      <c r="IA49" s="1"/>
+      <c r="IB49" s="1"/>
+      <c r="IC49" s="1"/>
+      <c r="ID49" s="1"/>
+      <c r="IE49" s="1"/>
+      <c r="IF49" s="1"/>
+      <c r="IG49" s="1"/>
+      <c r="IH49" s="1"/>
+      <c r="II49" s="1"/>
+      <c r="IJ49" s="1"/>
+      <c r="IK49" s="1"/>
+      <c r="IL49" s="1"/>
+      <c r="IM49" s="1"/>
+      <c r="IN49" s="1"/>
+      <c r="IO49" s="1"/>
+      <c r="IP49" s="1"/>
+      <c r="IQ49" s="1"/>
+      <c r="IR49" s="1"/>
+      <c r="IS49" s="1"/>
+      <c r="IT49" s="1"/>
+      <c r="IU49" s="1"/>
+      <c r="IV49" s="1"/>
+      <c r="IW49" s="1"/>
+      <c r="IX49" s="1"/>
+    </row>
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="17"/>
+      <c r="AP50" s="17"/>
+      <c r="AQ50" s="17"/>
+      <c r="AR50" s="17"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="10"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="10"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BI50" s="11"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1"/>
+      <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
+      <c r="DB50" s="1"/>
+      <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
+      <c r="DE50" s="1"/>
+      <c r="DF50" s="1"/>
+      <c r="DG50" s="1"/>
+      <c r="DH50" s="1"/>
+      <c r="DI50" s="1"/>
+      <c r="DJ50" s="1"/>
+      <c r="DK50" s="1"/>
+      <c r="DL50" s="1"/>
+      <c r="DM50" s="1"/>
+      <c r="DN50" s="1"/>
+      <c r="DO50" s="1"/>
+      <c r="DP50" s="1"/>
+      <c r="DQ50" s="1"/>
+      <c r="DR50" s="1"/>
+      <c r="DS50" s="1"/>
+      <c r="DT50" s="1"/>
+      <c r="DU50" s="1"/>
+      <c r="DV50" s="1"/>
+      <c r="DW50" s="1"/>
+      <c r="DX50" s="1"/>
+      <c r="DY50" s="1"/>
+      <c r="DZ50" s="1"/>
+      <c r="EA50" s="1"/>
+      <c r="EB50" s="1"/>
+      <c r="EC50" s="1"/>
+      <c r="ED50" s="1"/>
+      <c r="EE50" s="1"/>
+      <c r="EF50" s="1"/>
+      <c r="EG50" s="1"/>
+      <c r="EH50" s="1"/>
+      <c r="EI50" s="1"/>
+      <c r="EJ50" s="1"/>
+      <c r="EK50" s="1"/>
+      <c r="EL50" s="1"/>
+      <c r="EM50" s="1"/>
+      <c r="EN50" s="1"/>
+      <c r="EO50" s="1"/>
+      <c r="EP50" s="1"/>
+      <c r="EQ50" s="1"/>
+      <c r="ER50" s="1"/>
+      <c r="ES50" s="1"/>
+      <c r="ET50" s="1"/>
+      <c r="EU50" s="1"/>
+      <c r="EV50" s="1"/>
+      <c r="EW50" s="1"/>
+      <c r="EX50" s="1"/>
+      <c r="EY50" s="1"/>
+      <c r="EZ50" s="1"/>
+      <c r="FA50" s="1"/>
+      <c r="FB50" s="1"/>
+      <c r="FC50" s="1"/>
+      <c r="FD50" s="1"/>
+      <c r="FE50" s="1"/>
+      <c r="FF50" s="1"/>
+      <c r="FG50" s="1"/>
+      <c r="FH50" s="1"/>
+      <c r="FI50" s="1"/>
+      <c r="FJ50" s="1"/>
+      <c r="FK50" s="1"/>
+      <c r="FL50" s="1"/>
+      <c r="FM50" s="1"/>
+      <c r="FN50" s="1"/>
+      <c r="FO50" s="1"/>
+      <c r="FP50" s="1"/>
+      <c r="FQ50" s="1"/>
+      <c r="FR50" s="1"/>
+      <c r="FS50" s="1"/>
+      <c r="FT50" s="1"/>
+      <c r="FU50" s="1"/>
+      <c r="FV50" s="1"/>
+      <c r="FW50" s="1"/>
+      <c r="FX50" s="1"/>
+      <c r="FY50" s="1"/>
+      <c r="FZ50" s="1"/>
+      <c r="GA50" s="1"/>
+      <c r="GB50" s="1"/>
+      <c r="GC50" s="1"/>
+      <c r="GD50" s="1"/>
+      <c r="GE50" s="1"/>
+      <c r="GF50" s="1"/>
+      <c r="GG50" s="1"/>
+      <c r="GH50" s="1"/>
+      <c r="GI50" s="1"/>
+      <c r="GJ50" s="1"/>
+      <c r="GK50" s="1"/>
+      <c r="GL50" s="1"/>
+      <c r="GM50" s="1"/>
+      <c r="GN50" s="1"/>
+      <c r="GO50" s="1"/>
+      <c r="GP50" s="1"/>
+      <c r="GQ50" s="1"/>
+      <c r="GR50" s="1"/>
+      <c r="GS50" s="1"/>
+      <c r="GT50" s="1"/>
+      <c r="GU50" s="1"/>
+      <c r="GV50" s="1"/>
+      <c r="GW50" s="1"/>
+      <c r="GX50" s="1"/>
+      <c r="GY50" s="1"/>
+      <c r="GZ50" s="1"/>
+      <c r="HA50" s="1"/>
+      <c r="HB50" s="1"/>
+      <c r="HC50" s="1"/>
+      <c r="HD50" s="1"/>
+      <c r="HE50" s="1"/>
+      <c r="HF50" s="1"/>
+      <c r="HG50" s="1"/>
+      <c r="HH50" s="1"/>
+      <c r="HI50" s="1"/>
+      <c r="HJ50" s="1"/>
+      <c r="HK50" s="1"/>
+      <c r="HL50" s="1"/>
+      <c r="HM50" s="1"/>
+      <c r="HN50" s="1"/>
+      <c r="HO50" s="1"/>
+      <c r="HP50" s="1"/>
+      <c r="HQ50" s="1"/>
+      <c r="HR50" s="1"/>
+      <c r="HS50" s="1"/>
+      <c r="HT50" s="1"/>
+      <c r="HU50" s="1"/>
+      <c r="HV50" s="1"/>
+      <c r="HW50" s="1"/>
+      <c r="HX50" s="1"/>
+      <c r="HY50" s="1"/>
+      <c r="HZ50" s="1"/>
+      <c r="IA50" s="1"/>
+      <c r="IB50" s="1"/>
+      <c r="IC50" s="1"/>
+      <c r="ID50" s="1"/>
+      <c r="IE50" s="1"/>
+      <c r="IF50" s="1"/>
+      <c r="IG50" s="1"/>
+      <c r="IH50" s="1"/>
+      <c r="II50" s="1"/>
+      <c r="IJ50" s="1"/>
+      <c r="IK50" s="1"/>
+      <c r="IL50" s="1"/>
+      <c r="IM50" s="1"/>
+      <c r="IN50" s="1"/>
+      <c r="IO50" s="1"/>
+      <c r="IP50" s="1"/>
+      <c r="IQ50" s="1"/>
+      <c r="IR50" s="1"/>
+      <c r="IS50" s="1"/>
+      <c r="IT50" s="1"/>
+      <c r="IU50" s="1"/>
+      <c r="IV50" s="1"/>
+      <c r="IW50" s="1"/>
+      <c r="IX50" s="1"/>
+    </row>
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="27"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="27"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="28"/>
+      <c r="AT51" s="24"/>
+      <c r="AU51" s="25"/>
+      <c r="AV51" s="31"/>
+      <c r="AW51" s="25"/>
+      <c r="AX51" s="25"/>
+      <c r="AY51" s="25"/>
+      <c r="AZ51" s="25"/>
+      <c r="BA51" s="25"/>
+      <c r="BB51" s="25"/>
+      <c r="BC51" s="25"/>
+      <c r="BD51" s="25"/>
+      <c r="BE51" s="25"/>
+      <c r="BF51" s="25"/>
+      <c r="BG51" s="25"/>
+      <c r="BH51" s="25"/>
+      <c r="BI51" s="26"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
+      <c r="DB51" s="1"/>
+      <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
+      <c r="DE51" s="1"/>
+      <c r="DF51" s="1"/>
+      <c r="DG51" s="1"/>
+      <c r="DH51" s="1"/>
+      <c r="DI51" s="1"/>
+      <c r="DJ51" s="1"/>
+      <c r="DK51" s="1"/>
+      <c r="DL51" s="1"/>
+      <c r="DM51" s="1"/>
+      <c r="DN51" s="1"/>
+      <c r="DO51" s="1"/>
+      <c r="DP51" s="1"/>
+      <c r="DQ51" s="1"/>
+      <c r="DR51" s="1"/>
+      <c r="DS51" s="1"/>
+      <c r="DT51" s="1"/>
+      <c r="DU51" s="1"/>
+      <c r="DV51" s="1"/>
+      <c r="DW51" s="1"/>
+      <c r="DX51" s="1"/>
+      <c r="DY51" s="1"/>
+      <c r="DZ51" s="1"/>
+      <c r="EA51" s="1"/>
+      <c r="EB51" s="1"/>
+      <c r="EC51" s="1"/>
+      <c r="ED51" s="1"/>
+      <c r="EE51" s="1"/>
+      <c r="EF51" s="1"/>
+      <c r="EG51" s="1"/>
+      <c r="EH51" s="1"/>
+      <c r="EI51" s="1"/>
+      <c r="EJ51" s="1"/>
+      <c r="EK51" s="1"/>
+      <c r="EL51" s="1"/>
+      <c r="EM51" s="1"/>
+      <c r="EN51" s="1"/>
+      <c r="EO51" s="1"/>
+      <c r="EP51" s="1"/>
+      <c r="EQ51" s="1"/>
+      <c r="ER51" s="1"/>
+      <c r="ES51" s="1"/>
+      <c r="ET51" s="1"/>
+      <c r="EU51" s="1"/>
+      <c r="EV51" s="1"/>
+      <c r="EW51" s="1"/>
+      <c r="EX51" s="1"/>
+      <c r="EY51" s="1"/>
+      <c r="EZ51" s="1"/>
+      <c r="FA51" s="1"/>
+      <c r="FB51" s="1"/>
+      <c r="FC51" s="1"/>
+      <c r="FD51" s="1"/>
+      <c r="FE51" s="1"/>
+      <c r="FF51" s="1"/>
+      <c r="FG51" s="1"/>
+      <c r="FH51" s="1"/>
+      <c r="FI51" s="1"/>
+      <c r="FJ51" s="1"/>
+      <c r="FK51" s="1"/>
+      <c r="FL51" s="1"/>
+      <c r="FM51" s="1"/>
+      <c r="FN51" s="1"/>
+      <c r="FO51" s="1"/>
+      <c r="FP51" s="1"/>
+      <c r="FQ51" s="1"/>
+      <c r="FR51" s="1"/>
+      <c r="FS51" s="1"/>
+      <c r="FT51" s="1"/>
+      <c r="FU51" s="1"/>
+      <c r="FV51" s="1"/>
+      <c r="FW51" s="1"/>
+      <c r="FX51" s="1"/>
+      <c r="FY51" s="1"/>
+      <c r="FZ51" s="1"/>
+      <c r="GA51" s="1"/>
+      <c r="GB51" s="1"/>
+      <c r="GC51" s="1"/>
+      <c r="GD51" s="1"/>
+      <c r="GE51" s="1"/>
+      <c r="GF51" s="1"/>
+      <c r="GG51" s="1"/>
+      <c r="GH51" s="1"/>
+      <c r="GI51" s="1"/>
+      <c r="GJ51" s="1"/>
+      <c r="GK51" s="1"/>
+      <c r="GL51" s="1"/>
+      <c r="GM51" s="1"/>
+      <c r="GN51" s="1"/>
+      <c r="GO51" s="1"/>
+      <c r="GP51" s="1"/>
+      <c r="GQ51" s="1"/>
+      <c r="GR51" s="1"/>
+      <c r="GS51" s="1"/>
+      <c r="GT51" s="1"/>
+      <c r="GU51" s="1"/>
+      <c r="GV51" s="1"/>
+      <c r="GW51" s="1"/>
+      <c r="GX51" s="1"/>
+      <c r="GY51" s="1"/>
+      <c r="GZ51" s="1"/>
+      <c r="HA51" s="1"/>
+      <c r="HB51" s="1"/>
+      <c r="HC51" s="1"/>
+      <c r="HD51" s="1"/>
+      <c r="HE51" s="1"/>
+      <c r="HF51" s="1"/>
+      <c r="HG51" s="1"/>
+      <c r="HH51" s="1"/>
+      <c r="HI51" s="1"/>
+      <c r="HJ51" s="1"/>
+      <c r="HK51" s="1"/>
+      <c r="HL51" s="1"/>
+      <c r="HM51" s="1"/>
+      <c r="HN51" s="1"/>
+      <c r="HO51" s="1"/>
+      <c r="HP51" s="1"/>
+      <c r="HQ51" s="1"/>
+      <c r="HR51" s="1"/>
+      <c r="HS51" s="1"/>
+      <c r="HT51" s="1"/>
+      <c r="HU51" s="1"/>
+      <c r="HV51" s="1"/>
+      <c r="HW51" s="1"/>
+      <c r="HX51" s="1"/>
+      <c r="HY51" s="1"/>
+      <c r="HZ51" s="1"/>
+      <c r="IA51" s="1"/>
+      <c r="IB51" s="1"/>
+      <c r="IC51" s="1"/>
+      <c r="ID51" s="1"/>
+      <c r="IE51" s="1"/>
+      <c r="IF51" s="1"/>
+      <c r="IG51" s="1"/>
+      <c r="IH51" s="1"/>
+      <c r="II51" s="1"/>
+      <c r="IJ51" s="1"/>
+      <c r="IK51" s="1"/>
+      <c r="IL51" s="1"/>
+      <c r="IM51" s="1"/>
+      <c r="IN51" s="1"/>
+      <c r="IO51" s="1"/>
+      <c r="IP51" s="1"/>
+      <c r="IQ51" s="1"/>
+      <c r="IR51" s="1"/>
+      <c r="IS51" s="1"/>
+      <c r="IT51" s="1"/>
+      <c r="IU51" s="1"/>
+      <c r="IV51" s="1"/>
+      <c r="IW51" s="1"/>
+      <c r="IX51" s="1"/>
+    </row>
+    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="13"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="13"/>
+      <c r="AW52" s="13"/>
+      <c r="AX52" s="13"/>
+      <c r="AY52" s="13"/>
+      <c r="AZ52" s="13"/>
+      <c r="BA52" s="13"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="13"/>
+      <c r="BD52" s="13"/>
+      <c r="BE52" s="13"/>
+      <c r="BF52" s="13"/>
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="13"/>
+      <c r="BI52" s="13"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
+      <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+      <c r="DF52" s="1"/>
+      <c r="DG52" s="1"/>
+      <c r="DH52" s="1"/>
+      <c r="DI52" s="1"/>
+      <c r="DJ52" s="1"/>
+      <c r="DK52" s="1"/>
+      <c r="DL52" s="1"/>
+      <c r="DM52" s="1"/>
+      <c r="DN52" s="1"/>
+      <c r="DO52" s="1"/>
+      <c r="DP52" s="1"/>
+      <c r="DQ52" s="1"/>
+      <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
+      <c r="DT52" s="1"/>
+      <c r="DU52" s="1"/>
+      <c r="DV52" s="1"/>
+      <c r="DW52" s="1"/>
+      <c r="DX52" s="1"/>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
+      <c r="EA52" s="1"/>
+      <c r="EB52" s="1"/>
+      <c r="EC52" s="1"/>
+      <c r="ED52" s="1"/>
+      <c r="EE52" s="1"/>
+      <c r="EF52" s="1"/>
+      <c r="EG52" s="1"/>
+      <c r="EH52" s="1"/>
+      <c r="EI52" s="1"/>
+      <c r="EJ52" s="1"/>
+      <c r="EK52" s="1"/>
+      <c r="EL52" s="1"/>
+      <c r="EM52" s="1"/>
+      <c r="EN52" s="1"/>
+      <c r="EO52" s="1"/>
+      <c r="EP52" s="1"/>
+      <c r="EQ52" s="1"/>
+      <c r="ER52" s="1"/>
+      <c r="ES52" s="1"/>
+      <c r="ET52" s="1"/>
+      <c r="EU52" s="1"/>
+      <c r="EV52" s="1"/>
+      <c r="EW52" s="1"/>
+      <c r="EX52" s="1"/>
+      <c r="EY52" s="1"/>
+      <c r="EZ52" s="1"/>
+      <c r="FA52" s="1"/>
+      <c r="FB52" s="1"/>
+      <c r="FC52" s="1"/>
+      <c r="FD52" s="1"/>
+      <c r="FE52" s="1"/>
+      <c r="FF52" s="1"/>
+      <c r="FG52" s="1"/>
+      <c r="FH52" s="1"/>
+      <c r="FI52" s="1"/>
+      <c r="FJ52" s="1"/>
+      <c r="FK52" s="1"/>
+      <c r="FL52" s="1"/>
+      <c r="FM52" s="1"/>
+      <c r="FN52" s="1"/>
+      <c r="FO52" s="1"/>
+      <c r="FP52" s="1"/>
+      <c r="FQ52" s="1"/>
+      <c r="FR52" s="1"/>
+      <c r="FS52" s="1"/>
+      <c r="FT52" s="1"/>
+      <c r="FU52" s="1"/>
+      <c r="FV52" s="1"/>
+      <c r="FW52" s="1"/>
+      <c r="FX52" s="1"/>
+      <c r="FY52" s="1"/>
+      <c r="FZ52" s="1"/>
+      <c r="GA52" s="1"/>
+      <c r="GB52" s="1"/>
+      <c r="GC52" s="1"/>
+      <c r="GD52" s="1"/>
+      <c r="GE52" s="1"/>
+      <c r="GF52" s="1"/>
+      <c r="GG52" s="1"/>
+      <c r="GH52" s="1"/>
+      <c r="GI52" s="1"/>
+      <c r="GJ52" s="1"/>
+      <c r="GK52" s="1"/>
+      <c r="GL52" s="1"/>
+      <c r="GM52" s="1"/>
+      <c r="GN52" s="1"/>
+      <c r="GO52" s="1"/>
+      <c r="GP52" s="1"/>
+      <c r="GQ52" s="1"/>
+      <c r="GR52" s="1"/>
+      <c r="GS52" s="1"/>
+      <c r="GT52" s="1"/>
+      <c r="GU52" s="1"/>
+      <c r="GV52" s="1"/>
+      <c r="GW52" s="1"/>
+      <c r="GX52" s="1"/>
+      <c r="GY52" s="1"/>
+      <c r="GZ52" s="1"/>
+      <c r="HA52" s="1"/>
+      <c r="HB52" s="1"/>
+      <c r="HC52" s="1"/>
+      <c r="HD52" s="1"/>
+      <c r="HE52" s="1"/>
+      <c r="HF52" s="1"/>
+      <c r="HG52" s="1"/>
+      <c r="HH52" s="1"/>
+      <c r="HI52" s="1"/>
+      <c r="HJ52" s="1"/>
+      <c r="HK52" s="1"/>
+      <c r="HL52" s="1"/>
+      <c r="HM52" s="1"/>
+      <c r="HN52" s="1"/>
+      <c r="HO52" s="1"/>
+      <c r="HP52" s="1"/>
+      <c r="HQ52" s="1"/>
+      <c r="HR52" s="1"/>
+      <c r="HS52" s="1"/>
+      <c r="HT52" s="1"/>
+      <c r="HU52" s="1"/>
+      <c r="HV52" s="1"/>
+      <c r="HW52" s="1"/>
+      <c r="HX52" s="1"/>
+      <c r="HY52" s="1"/>
+      <c r="HZ52" s="1"/>
+      <c r="IA52" s="1"/>
+      <c r="IB52" s="1"/>
+      <c r="IC52" s="1"/>
+      <c r="ID52" s="1"/>
+      <c r="IE52" s="1"/>
+      <c r="IF52" s="1"/>
+      <c r="IG52" s="1"/>
+      <c r="IH52" s="1"/>
+      <c r="II52" s="1"/>
+      <c r="IJ52" s="1"/>
+      <c r="IK52" s="1"/>
+      <c r="IL52" s="1"/>
+      <c r="IM52" s="1"/>
+      <c r="IN52" s="1"/>
+      <c r="IO52" s="1"/>
+      <c r="IP52" s="1"/>
+      <c r="IQ52" s="1"/>
+      <c r="IR52" s="1"/>
+      <c r="IS52" s="1"/>
+      <c r="IT52" s="1"/>
+      <c r="IU52" s="1"/>
+      <c r="IV52" s="1"/>
+      <c r="IW52" s="1"/>
+      <c r="IX52" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="P41:AS41"/>
-    <mergeCell ref="AT41:BI41"/>
+  <mergeCells count="38">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="P12:AS12"/>
+    <mergeCell ref="AT12:BI12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:BI10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
@@ -15052,33 +16440,6 @@
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="P12:AS12"/>
-    <mergeCell ref="AT12:BI12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -15094,9 +16455,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15232,19 +16596,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15268,9 +16628,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>